--- a/Excel2Unity/Resources/excel/client/Role.xlsx
+++ b/Excel2Unity/Resources/excel/client/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="Data(数据)" sheetId="1" r:id="rId1"/>
@@ -109,71 +109,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>忽略测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ut_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ut_v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1|2.2|3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ut_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|0|255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int, string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1|aaa;2|bbb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忽略测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ut_v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1|2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ut_v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1|2.2|3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ut_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100|0|255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int, string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,16 +559,16 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -594,13 +594,13 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -623,19 +623,19 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -658,19 +658,19 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -692,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
